--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -1165,9 +1165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="870" windowWidth="18270" windowHeight="7590" tabRatio="557"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="194">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,18 @@
   </si>
   <si>
     <t>fracture at 130585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:1s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,6 +964,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -987,6 +1016,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1163,11 +1209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4647,6 +4693,75 @@
         <v>190</v>
       </c>
       <c r="V51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="4">
+        <v>650</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="6">
+        <f>+0</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="T52" s="8">
+        <v>42690</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="V52" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="870" windowWidth="18270" windowHeight="7590" tabRatio="557"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="215">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,6 +776,90 @@
   </si>
   <si>
     <t>T:1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:240s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclic tension compression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop at 2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 1066</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,23 +1048,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1016,23 +1083,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1209,11 +1259,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S52" sqref="S52"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4698,70 +4748,342 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B52" s="3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C52" s="3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D52" s="3">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T52" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="V52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C53" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D53" s="3">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T53" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="V53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C54" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>12</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T54" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C55" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T55" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="V55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D56" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H56" s="4">
         <v>650</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="6" t="s">
+      <c r="I56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="6">
-        <f>+0</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>0</v>
-      </c>
-      <c r="R52" s="5" t="s">
+      <c r="K56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O56" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0</v>
+      </c>
+      <c r="R56" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="S52" s="5" t="s">
+      <c r="S56" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="T52" s="8">
+      <c r="T56" s="8">
         <v>42690</v>
       </c>
-      <c r="U52" s="4" t="s">
+      <c r="U56" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="V52" s="4">
+      <c r="V56" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="223">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,6 +860,38 @@
   </si>
   <si>
     <t>fracture at 1066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1259,11 +1291,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD55"/>
+      <selection pane="bottomLeft" activeCell="X55" sqref="X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1272,18 +1304,20 @@
     <col min="2" max="2" width="7.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="6" customWidth="1"/>
-    <col min="11" max="12" width="12.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="5" customWidth="1"/>
+    <col min="11" max="12" width="12.75" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="5" customWidth="1"/>
     <col min="15" max="15" width="21.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="29.375" style="7" customWidth="1"/>
-    <col min="18" max="19" width="25" style="5" customWidth="1"/>
+    <col min="16" max="16" width="29.375" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29.375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="25" style="5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="25" style="5" customWidth="1"/>
     <col min="20" max="20" width="11.625" style="4" customWidth="1"/>
     <col min="21" max="21" width="27.25" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.5" style="4" bestFit="1" customWidth="1"/>
@@ -5020,16 +5054,16 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C56" s="3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D56" s="3">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>47</v>
@@ -5040,50 +5074,319 @@
       <c r="G56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T56" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C57" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D57" s="3">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T57" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="V57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C58" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>180</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T58" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="V58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C59" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P59" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>180</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T59" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="V59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="4">
         <v>650</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="6" t="s">
+      <c r="I60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O56" s="6">
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P56" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>0</v>
-      </c>
-      <c r="R56" s="5" t="s">
+      <c r="P60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0</v>
+      </c>
+      <c r="R60" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="S56" s="5" t="s">
+      <c r="S60" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="T56" s="8">
+      <c r="T60" s="8">
         <v>42690</v>
       </c>
-      <c r="U56" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="V56" s="4">
+      <c r="V60" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="234">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,6 +892,50 @@
   </si>
   <si>
     <t>fracture at 128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:180s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:180s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,11 +1335,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X55" sqref="X55"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1304,20 +1348,18 @@
     <col min="2" max="2" width="7.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="6" customWidth="1"/>
-    <col min="11" max="12" width="12.75" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="12.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="5" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.375" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="29.375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="25" style="5" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="25" style="5" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="6" customWidth="1"/>
+    <col min="16" max="17" width="29.375" style="7" customWidth="1"/>
+    <col min="18" max="19" width="25" style="5" customWidth="1"/>
     <col min="20" max="20" width="11.625" style="4" customWidth="1"/>
     <col min="21" max="21" width="27.25" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.5" style="4" bestFit="1" customWidth="1"/>
@@ -4805,8 +4847,8 @@
       <c r="H52" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>198</v>
+      <c r="I52" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>199</v>
@@ -4873,8 +4915,8 @@
       <c r="H53" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>200</v>
+      <c r="I53" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>208</v>
@@ -4941,8 +4983,8 @@
       <c r="H54" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>200</v>
+      <c r="I54" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>211</v>
@@ -5009,8 +5051,8 @@
       <c r="H55" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>200</v>
+      <c r="I55" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="J55" s="6" t="s">
         <v>211</v>
@@ -5077,8 +5119,8 @@
       <c r="H56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>10</v>
+      <c r="I56" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>161</v>
@@ -5145,8 +5187,8 @@
       <c r="H57" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>10</v>
+      <c r="I57" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="J57" s="6" t="s">
         <v>161</v>
@@ -5213,8 +5255,8 @@
       <c r="H58" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>10</v>
+      <c r="I58" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="J58" s="6" t="s">
         <v>161</v>
@@ -5281,8 +5323,8 @@
       <c r="H59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>10</v>
+      <c r="I59" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="J59" s="6" t="s">
         <v>161</v>
@@ -5326,16 +5368,16 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="B60" s="3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C60" s="3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D60" s="3">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>47</v>
@@ -5346,47 +5388,115 @@
       <c r="G60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>180</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="T60" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="V60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D61" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="4">
         <v>650</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" s="6" t="s">
+      <c r="I61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="6">
-        <v>0</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O60" s="6">
+      <c r="K61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P60" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="7">
-        <v>0</v>
-      </c>
-      <c r="R60" s="5" t="s">
+      <c r="P61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0</v>
+      </c>
+      <c r="R61" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="S60" s="5" t="s">
+      <c r="S61" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="T60" s="8">
+      <c r="T61" s="8">
         <v>42690</v>
       </c>
-      <c r="V60" s="4">
+      <c r="V61" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="237">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -936,6 +936,18 @@
   </si>
   <si>
     <t>ramp:+-0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 624</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,11 +1347,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD58"/>
+      <selection pane="bottomLeft" activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5436,16 +5448,16 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="B61" s="3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C61" s="3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D61" s="3">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>47</v>
@@ -5456,47 +5468,118 @@
       <c r="G61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T61" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="V61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="4">
         <v>650</v>
       </c>
-      <c r="I61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J61" s="6" t="s">
+      <c r="I62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" s="6">
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P61" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="7">
-        <v>0</v>
-      </c>
-      <c r="R61" s="5" t="s">
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="S61" s="5" t="s">
+      <c r="S62" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="T61" s="8">
+      <c r="T62" s="8">
         <v>42690</v>
       </c>
-      <c r="V61" s="4">
+      <c r="U62" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="V62" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="252">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -799,10 +799,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ramp:+-0.64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,79 +831,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>stop at 2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 1066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:180s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:180s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ramp:+-0.285</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stop at 2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 1066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 375</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 864</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T:180s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T:180s</t>
+    <t>ramp:+-0.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -915,39 +963,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ramp:+-0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ramp:+-0.70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ramp:+-0.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 624</t>
+    <t>ramp:+-0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 147</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,11 +1407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q64" sqref="Q64"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1489,7 +1549,7 @@
       <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P2" s="7">
@@ -1557,7 +1617,7 @@
       <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="7">
@@ -1625,7 +1685,7 @@
       <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P4" s="7">
@@ -1693,7 +1753,7 @@
       <c r="N5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="7">
@@ -1761,7 +1821,7 @@
       <c r="N6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="7">
@@ -1829,7 +1889,7 @@
       <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P7" s="7">
@@ -1897,7 +1957,7 @@
       <c r="N8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P8" s="7">
@@ -1965,7 +2025,7 @@
       <c r="N9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="7">
@@ -2033,7 +2093,7 @@
       <c r="N10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="7">
@@ -2101,7 +2161,7 @@
       <c r="N11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P11" s="7">
@@ -2169,7 +2229,7 @@
       <c r="N12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="7">
@@ -2234,7 +2294,7 @@
       <c r="N13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P13" s="7">
@@ -2299,7 +2359,7 @@
       <c r="N14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P14" s="7">
@@ -2364,7 +2424,7 @@
       <c r="N15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P15" s="7">
@@ -2432,7 +2492,7 @@
       <c r="N16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P16" s="7">
@@ -2500,7 +2560,7 @@
       <c r="N17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P17" s="7">
@@ -2568,7 +2628,7 @@
       <c r="N18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="2" t="s">
         <v>178</v>
       </c>
       <c r="P18" s="7">
@@ -2636,7 +2696,7 @@
       <c r="N19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P19" s="7">
@@ -2704,7 +2764,7 @@
       <c r="N20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P20" s="7">
@@ -2772,7 +2832,7 @@
       <c r="N21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P21" s="7">
@@ -2840,7 +2900,7 @@
       <c r="N22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P22" s="7">
@@ -2908,7 +2968,7 @@
       <c r="N23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="2" t="s">
         <v>179</v>
       </c>
       <c r="P23" s="7">
@@ -2976,7 +3036,7 @@
       <c r="N24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="2" t="s">
         <v>179</v>
       </c>
       <c r="P24" s="7">
@@ -3044,7 +3104,7 @@
       <c r="N25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="2" t="s">
         <v>179</v>
       </c>
       <c r="P25" s="7">
@@ -3112,7 +3172,7 @@
       <c r="N26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="2" t="s">
         <v>178</v>
       </c>
       <c r="P26" s="7">
@@ -3180,7 +3240,7 @@
       <c r="N27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="2" t="s">
         <v>179</v>
       </c>
       <c r="P27" s="7">
@@ -3248,7 +3308,7 @@
       <c r="N28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="2" t="s">
         <v>180</v>
       </c>
       <c r="P28" s="7">
@@ -3316,7 +3376,7 @@
       <c r="N29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="2" t="s">
         <v>178</v>
       </c>
       <c r="P29" s="7">
@@ -3384,7 +3444,7 @@
       <c r="N30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="2" t="s">
         <v>181</v>
       </c>
       <c r="P30" s="7">
@@ -3452,7 +3512,7 @@
       <c r="N31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="2" t="s">
         <v>181</v>
       </c>
       <c r="P31" s="7">
@@ -3520,7 +3580,7 @@
       <c r="N32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P32" s="7">
@@ -3588,7 +3648,7 @@
       <c r="N33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P33" s="7">
@@ -3656,7 +3716,7 @@
       <c r="N34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="2" t="s">
         <v>179</v>
       </c>
       <c r="P34" s="7">
@@ -3724,7 +3784,7 @@
       <c r="N35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="2" t="s">
         <v>178</v>
       </c>
       <c r="P35" s="7">
@@ -3792,7 +3852,7 @@
       <c r="N36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P36" s="7">
@@ -3860,7 +3920,7 @@
       <c r="N37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P37" s="7">
@@ -3928,7 +3988,7 @@
       <c r="N38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P38" s="7">
@@ -3996,7 +4056,7 @@
       <c r="N39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P39" s="7">
@@ -4061,7 +4121,7 @@
       <c r="N40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="2" t="s">
         <v>182</v>
       </c>
       <c r="P40" s="7">
@@ -4129,7 +4189,7 @@
       <c r="N41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="2" t="s">
         <v>182</v>
       </c>
       <c r="P41" s="7">
@@ -4197,7 +4257,7 @@
       <c r="N42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="2" t="s">
         <v>182</v>
       </c>
       <c r="P42" s="7">
@@ -4265,7 +4325,7 @@
       <c r="N43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>182</v>
       </c>
       <c r="P43" s="7">
@@ -4333,7 +4393,7 @@
       <c r="N44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" s="2" t="s">
         <v>177</v>
       </c>
       <c r="P44" s="7">
@@ -4401,7 +4461,7 @@
       <c r="N45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="2" t="s">
         <v>181</v>
       </c>
       <c r="P45" s="7">
@@ -4469,7 +4529,7 @@
       <c r="N46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="O46" s="2" t="s">
         <v>178</v>
       </c>
       <c r="P46" s="7">
@@ -4537,7 +4597,7 @@
       <c r="N47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="O47" s="2" t="s">
         <v>183</v>
       </c>
       <c r="P47" s="7">
@@ -4605,7 +4665,7 @@
       <c r="N48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="O48" s="2" t="s">
         <v>182</v>
       </c>
       <c r="P48" s="7">
@@ -4673,7 +4733,7 @@
       <c r="N49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O49" s="6" t="s">
+      <c r="O49" s="2" t="s">
         <v>184</v>
       </c>
       <c r="P49" s="7">
@@ -4741,7 +4801,7 @@
       <c r="N50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O50" s="6" t="s">
+      <c r="O50" s="2" t="s">
         <v>179</v>
       </c>
       <c r="P50" s="7">
@@ -4809,7 +4869,7 @@
       <c r="N51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O51" s="6" t="s">
+      <c r="O51" s="2" t="s">
         <v>185</v>
       </c>
       <c r="P51" s="7">
@@ -4860,10 +4920,10 @@
         <v>197</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>198</v>
@@ -4875,28 +4935,28 @@
         <v>198</v>
       </c>
       <c r="N52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O52" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P52" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>0</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="S52" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T52" s="8">
         <v>42979</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V52" s="4">
         <v>1</v>
@@ -4904,7 +4964,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B53" s="3">
         <v>6.5</v>
@@ -4916,55 +4976,55 @@
         <v>12</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I53" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6" t="s">
+      <c r="S53" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P53" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="7">
-        <v>0</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="S53" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="T53" s="8">
         <v>42979</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V53" s="4">
         <v>1</v>
@@ -4972,7 +5032,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B54" s="3">
         <v>6.5</v>
@@ -4984,55 +5044,55 @@
         <v>12</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I54" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6" t="s">
+      <c r="S54" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P54" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>0</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="S54" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="T54" s="8">
         <v>42979</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="V54" s="4">
         <v>1</v>
@@ -5040,7 +5100,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B55" s="3">
         <v>6.5</v>
@@ -5052,55 +5112,55 @@
         <v>12</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="I55" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="K55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0</v>
+      </c>
+      <c r="R55" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
-      <c r="M55" s="6" t="s">
+      <c r="S55" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P55" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>0</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="S55" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="T55" s="8">
         <v>42979</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V55" s="4">
         <v>1</v>
@@ -5108,7 +5168,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B56" s="3">
         <v>6.5</v>
@@ -5132,10 +5192,10 @@
         <v>54</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>10</v>
@@ -5149,8 +5209,8 @@
       <c r="N56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O56" s="6" t="s">
-        <v>185</v>
+      <c r="O56" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="P56" s="7">
         <v>0</v>
@@ -5168,7 +5228,7 @@
         <v>42979</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="V56" s="4">
         <v>1</v>
@@ -5176,7 +5236,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B57" s="3">
         <v>6.5</v>
@@ -5200,10 +5260,10 @@
         <v>54</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>10</v>
@@ -5217,8 +5277,8 @@
       <c r="N57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="6" t="s">
-        <v>185</v>
+      <c r="O57" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="P57" s="7">
         <v>0</v>
@@ -5236,7 +5296,7 @@
         <v>42979</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="V57" s="4">
         <v>1</v>
@@ -5244,7 +5304,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B58" s="3">
         <v>6.5</v>
@@ -5268,10 +5328,10 @@
         <v>54</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>10</v>
@@ -5285,8 +5345,8 @@
       <c r="N58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="6" t="s">
-        <v>185</v>
+      <c r="O58" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -5304,7 +5364,7 @@
         <v>42979</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="V58" s="4">
         <v>1</v>
@@ -5312,7 +5372,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B59" s="3">
         <v>6.5</v>
@@ -5336,10 +5396,10 @@
         <v>54</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>10</v>
@@ -5353,8 +5413,8 @@
       <c r="N59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="6" t="s">
-        <v>185</v>
+      <c r="O59" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="P59" s="7">
         <v>0</v>
@@ -5372,7 +5432,7 @@
         <v>42979</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V59" s="4">
         <v>1</v>
@@ -5380,7 +5440,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B60" s="3">
         <v>6.5</v>
@@ -5404,10 +5464,10 @@
         <v>54</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>10</v>
@@ -5421,8 +5481,8 @@
       <c r="N60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O60" s="6" t="s">
-        <v>185</v>
+      <c r="O60" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="P60" s="7">
         <v>0</v>
@@ -5431,16 +5491,16 @@
         <v>180</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="T60" s="8">
         <v>42979</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V60" s="4">
         <v>1</v>
@@ -5448,7 +5508,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B61" s="3">
         <v>6.5</v>
@@ -5472,10 +5532,10 @@
         <v>54</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>10</v>
@@ -5489,8 +5549,8 @@
       <c r="N61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O61" s="6" t="s">
-        <v>185</v>
+      <c r="O61" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="P61" s="7">
         <v>0</v>
@@ -5508,7 +5568,7 @@
         <v>42979</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V61" s="4">
         <v>1</v>
@@ -5516,16 +5576,16 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="B62" s="3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C62" s="3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D62" s="3">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>47</v>
@@ -5536,50 +5596,118 @@
       <c r="G62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T62" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="V62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D63" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="4">
         <v>650</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J62" s="6" t="s">
+      <c r="I63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="6">
-        <v>0</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O62" s="6">
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63" s="6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P62" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="7">
-        <v>0</v>
-      </c>
-      <c r="R62" s="5" t="s">
+      <c r="P63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0</v>
+      </c>
+      <c r="R63" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="S62" s="5" t="s">
+      <c r="S63" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="T62" s="8">
+      <c r="T63" s="8">
         <v>42690</v>
       </c>
-      <c r="U62" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="V62" s="4">
+      <c r="U63" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="V63" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="253">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1008,6 +1008,10 @@
   </si>
   <si>
     <t>fracture at 147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,9 +1413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U71" sqref="U71"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5576,7 +5580,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B62" s="3">
         <v>6.5</v>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="252">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,10 +899,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ramp:+-0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ramp:+-0.70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ramp:+-0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ramp:+-0.75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -991,10 +983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+-0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ramp:+-0.70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,6 +1000,14 @@
   </si>
   <si>
     <t>7302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,9 +1409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4924,10 +4920,10 @@
         <v>197</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>198</v>
@@ -4942,7 +4938,7 @@
         <v>199</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P52" s="7">
         <v>0</v>
@@ -4992,10 +4988,10 @@
         <v>206</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>199</v>
@@ -5010,7 +5006,7 @@
         <v>199</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P53" s="7">
         <v>0</v>
@@ -5060,10 +5056,10 @@
         <v>206</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>199</v>
@@ -5078,7 +5074,7 @@
         <v>199</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P54" s="7">
         <v>0</v>
@@ -5128,10 +5124,10 @@
         <v>206</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>199</v>
@@ -5146,7 +5142,7 @@
         <v>199</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P55" s="7">
         <v>0</v>
@@ -5196,10 +5192,10 @@
         <v>54</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>10</v>
@@ -5214,7 +5210,7 @@
         <v>10</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P56" s="7">
         <v>0</v>
@@ -5264,10 +5260,10 @@
         <v>54</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>10</v>
@@ -5282,7 +5278,7 @@
         <v>10</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P57" s="7">
         <v>0</v>
@@ -5332,10 +5328,10 @@
         <v>54</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>10</v>
@@ -5350,7 +5346,7 @@
         <v>10</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -5400,10 +5396,10 @@
         <v>54</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>10</v>
@@ -5418,7 +5414,7 @@
         <v>10</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P59" s="7">
         <v>0</v>
@@ -5468,10 +5464,10 @@
         <v>54</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>10</v>
@@ -5486,7 +5482,7 @@
         <v>10</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P60" s="7">
         <v>0</v>
@@ -5512,7 +5508,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B61" s="3">
         <v>6.5</v>
@@ -5536,10 +5532,10 @@
         <v>54</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>10</v>
@@ -5554,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P61" s="7">
         <v>0</v>
@@ -5572,7 +5568,7 @@
         <v>42979</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V61" s="4">
         <v>1</v>
@@ -5580,7 +5576,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B62" s="3">
         <v>6.5</v>
@@ -5604,10 +5600,10 @@
         <v>54</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>10</v>
@@ -5622,7 +5618,7 @@
         <v>10</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P62" s="7">
         <v>0</v>
@@ -5640,7 +5636,7 @@
         <v>42979</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="V62" s="4">
         <v>1</v>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="257">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1008,6 +1008,26 @@
   </si>
   <si>
     <t>+-0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:240s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 3387</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1407,11 +1427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5508,7 +5528,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B61" s="3">
         <v>6.5</v>
@@ -5532,10 +5552,10 @@
         <v>54</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>10</v>
@@ -5550,25 +5570,25 @@
         <v>10</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="P61" s="7">
         <v>0</v>
       </c>
       <c r="Q61" s="7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="T61" s="8">
-        <v>42979</v>
+        <v>43021</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="V61" s="4">
         <v>1</v>
@@ -5576,7 +5596,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B62" s="3">
         <v>6.5</v>
@@ -5600,10 +5620,10 @@
         <v>54</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>10</v>
@@ -5618,7 +5638,7 @@
         <v>10</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P62" s="7">
         <v>0</v>
@@ -5636,7 +5656,7 @@
         <v>42979</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="V62" s="4">
         <v>1</v>
@@ -5644,16 +5664,16 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="B63" s="3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C63" s="3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D63" s="3">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>47</v>
@@ -5664,50 +5684,118 @@
       <c r="G63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T63" s="8">
+        <v>42979</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="4">
         <v>650</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J63" s="6" t="s">
+      <c r="I64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="K63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O63" s="6">
+      <c r="K64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O64" s="6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="P63" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="7">
-        <v>0</v>
-      </c>
-      <c r="R63" s="5" t="s">
+      <c r="P64" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>0</v>
+      </c>
+      <c r="R64" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="S63" s="5" t="s">
+      <c r="S64" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="T63" s="8">
+      <c r="T64" s="8">
         <v>42690</v>
       </c>
-      <c r="U63" s="4" t="s">
+      <c r="U64" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="V63" s="4">
+      <c r="V64" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="870" windowWidth="18270" windowHeight="7590" tabRatio="557"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inconel718_test_log!$E$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inconel718_test_log!$H$1:$H$64</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="254">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -935,18 +935,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ramp:+-0.60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ramp:+-0.285</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ramp:+-0.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ramp:+-0.50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -955,10 +947,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ramp:+-0.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+-0.285</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -975,26 +963,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+-0.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+-0.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ramp:+-0.70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ramp:+-0.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+-0.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fracture at 147</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1028,6 +1000,22 @@
   </si>
   <si>
     <t>fracture at 3387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1216,6 +1204,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1251,6 +1256,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1427,11 +1449,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T62" sqref="T62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1441,8 +1464,8 @@
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="6" customWidth="1"/>
@@ -1450,7 +1473,8 @@
     <col min="13" max="13" width="18.375" style="5" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="5" customWidth="1"/>
     <col min="15" max="15" width="21.625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="29.375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="29.375" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="29.375" style="7" customWidth="1"/>
     <col min="18" max="19" width="25" style="5" customWidth="1"/>
     <col min="20" max="20" width="11.625" style="4" customWidth="1"/>
     <col min="21" max="21" width="27.25" style="4" bestFit="1" customWidth="1"/>
@@ -1526,7 +1550,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1662,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1730,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1798,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1866,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1934,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -2070,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -2138,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -2206,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2271,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -2336,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -2401,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>187</v>
       </c>
@@ -2469,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>188</v>
       </c>
@@ -2537,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>189</v>
       </c>
@@ -3829,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -3897,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -3965,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>120</v>
       </c>
@@ -4033,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
@@ -4370,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>136</v>
       </c>
@@ -4438,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>141</v>
       </c>
@@ -4506,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>140</v>
       </c>
@@ -4574,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -4642,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>151</v>
       </c>
@@ -4710,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>153</v>
       </c>
@@ -4778,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4846,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>160</v>
       </c>
@@ -4943,7 +4967,7 @@
         <v>227</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>198</v>
@@ -4958,7 +4982,7 @@
         <v>199</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P52" s="7">
         <v>0</v>
@@ -5011,7 +5035,7 @@
         <v>228</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>199</v>
@@ -5026,7 +5050,7 @@
         <v>199</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P53" s="7">
         <v>0</v>
@@ -5079,7 +5103,7 @@
         <v>226</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>199</v>
@@ -5094,7 +5118,7 @@
         <v>199</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P54" s="7">
         <v>0</v>
@@ -5147,7 +5171,7 @@
         <v>229</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>199</v>
@@ -5162,7 +5186,7 @@
         <v>199</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P55" s="7">
         <v>0</v>
@@ -5215,7 +5239,7 @@
         <v>224</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>10</v>
@@ -5230,7 +5254,7 @@
         <v>10</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="P56" s="7">
         <v>0</v>
@@ -5283,7 +5307,7 @@
         <v>225</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>10</v>
@@ -5298,7 +5322,7 @@
         <v>10</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="P57" s="7">
         <v>0</v>
@@ -5351,7 +5375,7 @@
         <v>225</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>10</v>
@@ -5366,7 +5390,7 @@
         <v>10</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -5419,7 +5443,7 @@
         <v>224</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>10</v>
@@ -5434,7 +5458,7 @@
         <v>10</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="P59" s="7">
         <v>0</v>
@@ -5484,10 +5508,10 @@
         <v>54</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>10</v>
@@ -5502,7 +5526,7 @@
         <v>10</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P60" s="7">
         <v>0</v>
@@ -5528,7 +5552,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B61" s="3">
         <v>6.5</v>
@@ -5552,10 +5576,10 @@
         <v>54</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>10</v>
@@ -5570,7 +5594,7 @@
         <v>10</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="P61" s="7">
         <v>0</v>
@@ -5579,16 +5603,16 @@
         <v>180</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="T61" s="8">
         <v>43021</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="V61" s="4">
         <v>1</v>
@@ -5623,7 +5647,7 @@
         <v>231</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>10</v>
@@ -5638,7 +5662,7 @@
         <v>10</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="P62" s="7">
         <v>0</v>
@@ -5664,7 +5688,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B63" s="3">
         <v>6.5</v>
@@ -5688,10 +5712,10 @@
         <v>54</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>10</v>
@@ -5706,7 +5730,7 @@
         <v>10</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P63" s="7">
         <v>0</v>
@@ -5724,13 +5748,13 @@
         <v>42979</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="V63" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>191</v>
       </c>
@@ -5800,6 +5824,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H64">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="300-650"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:W22">
     <sortCondition ref="T1"/>
   </sortState>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="870" windowWidth="18270" windowHeight="7590" tabRatio="557"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="257">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+-0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+-0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1016,6 +1012,22 @@
   </si>
   <si>
     <t>+-0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1204,23 +1216,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1256,23 +1251,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1449,12 +1427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1550,7 +1527,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1686,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1754,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1822,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1890,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1958,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -2026,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -2094,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -2162,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -2230,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2295,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -2360,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -2425,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>187</v>
       </c>
@@ -2493,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>188</v>
       </c>
@@ -2561,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>189</v>
       </c>
@@ -3853,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -3921,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -3989,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>120</v>
       </c>
@@ -4057,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
@@ -4394,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>136</v>
       </c>
@@ -4462,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>141</v>
       </c>
@@ -4530,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>140</v>
       </c>
@@ -4598,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -4666,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>151</v>
       </c>
@@ -4734,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>153</v>
       </c>
@@ -4802,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>154</v>
       </c>
@@ -4870,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>160</v>
       </c>
@@ -4982,7 +4959,7 @@
         <v>199</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P52" s="7">
         <v>0</v>
@@ -5186,7 +5163,7 @@
         <v>199</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P55" s="7">
         <v>0</v>
@@ -5239,22 +5216,22 @@
         <v>224</v>
       </c>
       <c r="J56" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="P56" s="7">
         <v>0</v>
@@ -5322,7 +5299,7 @@
         <v>10</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P57" s="7">
         <v>0</v>
@@ -5390,7 +5367,7 @@
         <v>10</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -5443,22 +5420,22 @@
         <v>224</v>
       </c>
       <c r="J59" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="6">
-        <v>0</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="P59" s="7">
         <v>0</v>
@@ -5508,25 +5485,25 @@
         <v>54</v>
       </c>
       <c r="I60" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="6">
-        <v>0</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="P60" s="7">
         <v>0</v>
@@ -5552,7 +5529,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B61" s="3">
         <v>6.5</v>
@@ -5576,25 +5553,25 @@
         <v>54</v>
       </c>
       <c r="I61" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="P61" s="7">
         <v>0</v>
@@ -5603,16 +5580,16 @@
         <v>180</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T61" s="8">
         <v>43021</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V61" s="4">
         <v>1</v>
@@ -5662,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P62" s="7">
         <v>0</v>
@@ -5688,7 +5665,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B63" s="3">
         <v>6.5</v>
@@ -5712,25 +5689,25 @@
         <v>54</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J63" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="P63" s="7">
         <v>0</v>
@@ -5748,13 +5725,13 @@
         <v>42979</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V63" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>191</v>
       </c>
@@ -5817,20 +5794,220 @@
         <v>42690</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="V64" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D65" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="4">
+        <v>650</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>0</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="T65" s="8">
+        <v>42690</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="V65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D66" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="4">
+        <v>650</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>0</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="T66" s="8">
+        <v>42690</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="V66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D67" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="4">
+        <v>650</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O67" s="6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="T67" s="8">
+        <v>42690</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="V67" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="H1:H64">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="300-650"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:W22">
     <sortCondition ref="T1"/>
   </sortState>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="258">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1028,6 +1028,10 @@
   </si>
   <si>
     <t>fracture at 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7042-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1427,11 +1431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U70" sqref="U70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6004,6 +6008,74 @@
         <v>256</v>
       </c>
       <c r="V67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68" s="3">
+        <v>10</v>
+      </c>
+      <c r="C68" s="3">
+        <v>12</v>
+      </c>
+      <c r="D68" s="3">
+        <v>25</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="4">
+        <v>400</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T68" s="8">
+        <v>42395</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="V68" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Inconel718_test_log.xlsx
+++ b/Inconel718_test_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="262">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -939,35 +939,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>+-0.285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ramp:+-0.50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>7210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ramp:+-0.40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+-0.285</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+-0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+-0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7302</t>
+    <t>T:240s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 3387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture at 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7042-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -975,27 +1011,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+-0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ramp:+-0.40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+-0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T:240s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 3387</t>
+    <t>ramp:+-0.425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1003,35 +1027,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ramp:+-0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+-0.90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+-0.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+-0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fracture at 1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7042-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1434,8 +1450,8 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4963,7 +4979,7 @@
         <v>199</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P52" s="7">
         <v>0</v>
@@ -5031,7 +5047,7 @@
         <v>199</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P53" s="7">
         <v>0</v>
@@ -5084,7 +5100,7 @@
         <v>226</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>199</v>
@@ -5099,7 +5115,7 @@
         <v>199</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="P54" s="7">
         <v>0</v>
@@ -5152,7 +5168,7 @@
         <v>229</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>199</v>
@@ -5167,7 +5183,7 @@
         <v>199</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="P55" s="7">
         <v>0</v>
@@ -5220,7 +5236,7 @@
         <v>224</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>10</v>
@@ -5235,7 +5251,7 @@
         <v>10</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="P56" s="7">
         <v>0</v>
@@ -5288,7 +5304,7 @@
         <v>225</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>10</v>
@@ -5303,7 +5319,7 @@
         <v>10</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="P57" s="7">
         <v>0</v>
@@ -5356,7 +5372,7 @@
         <v>225</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>10</v>
@@ -5371,7 +5387,7 @@
         <v>10</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -5424,7 +5440,7 @@
         <v>224</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>10</v>
@@ -5439,7 +5455,7 @@
         <v>10</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="P59" s="7">
         <v>0</v>
@@ -5489,10 +5505,10 @@
         <v>54</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>10</v>
@@ -5507,7 +5523,7 @@
         <v>10</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="P60" s="7">
         <v>0</v>
@@ -5533,7 +5549,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B61" s="3">
         <v>6.5</v>
@@ -5557,10 +5573,10 @@
         <v>54</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>10</v>
@@ -5575,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P61" s="7">
         <v>0</v>
@@ -5584,16 +5600,16 @@
         <v>180</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="T61" s="8">
         <v>43021</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V61" s="4">
         <v>1</v>
@@ -5628,7 +5644,7 @@
         <v>231</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>10</v>
@@ -5643,7 +5659,7 @@
         <v>10</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="P62" s="7">
         <v>0</v>
@@ -5669,7 +5685,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B63" s="3">
         <v>6.5</v>
@@ -5693,10 +5709,10 @@
         <v>54</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>10</v>
@@ -5711,7 +5727,7 @@
         <v>10</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P63" s="7">
         <v>0</v>
@@ -5729,7 +5745,7 @@
         <v>42979</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="V63" s="4">
         <v>1</v>
@@ -5798,7 +5814,7 @@
         <v>42690</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="V64" s="4">
         <v>1</v>
@@ -5806,7 +5822,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -5867,7 +5883,7 @@
         <v>42690</v>
       </c>
       <c r="U65" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="V65" s="4">
         <v>1</v>
@@ -5875,7 +5891,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -5936,7 +5952,7 @@
         <v>42690</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="V66" s="4">
         <v>1</v>
@@ -5944,7 +5960,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -6005,7 +6021,7 @@
         <v>42690</v>
       </c>
       <c r="U67" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="V67" s="4">
         <v>1</v>
@@ -6013,7 +6029,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B68" s="3">
         <v>10</v>
